--- a/sharedata/exceldata/excel/all/C-充值活动表.xlsx
+++ b/sharedata/exceldata/excel/all/C-充值活动表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444" tabRatio="846" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="516">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -2627,10 +2627,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>2023-04-14</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>0</t>
     </r>
@@ -2744,8 +2740,211 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>每日礼包//每周礼包//终身限购</t>
+    <t>tag_desc_list</t>
     <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签描述列表</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时活动背景2</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时活动背景2</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高性价比礼包
+        每日限购//超值礼包大折扣
+        每周限购//钜惠超值礼包
+        终身限购</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日礼包/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/每周礼包//终身限购</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石//竞技夺宝活力丹</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>8//8//8//8</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>传世画册//金丝锦囊//大师乐谱//绝世香脂</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>10//10//10//10</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级军事书//高级农业书//高级政治书//高级商业书</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙宝碎片任选//行动药水//竞技夺宝活力丹//金钱</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>10//10//10//3000000</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力丹//活力丹//金钱</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>10//10//80000</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15//5//100000</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>奏折//高级随机书//食物</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱//食物//帮众</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000//50000//50000</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>5//5</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色选择包//养成资源包</t>
+  </si>
+  <si>
+    <t>20//4</t>
+  </si>
+  <si>
+    <t>钻石//橙色选择包//行动药水</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>300//10</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>680//5//10</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>30//30//30//30</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级军事书//高级农业书//高级政治书//高级商业书</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石//橙宝碎片任选//行动药水//竞技夺宝活力丹</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980//10//10//10</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//10//10//10//10</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>橙色装备任选/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/高级军事书//高级农业书//高级政治书//高级商业书</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//10//10//10//10</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级军事书//高级农业书//高级政治书//高级商业书</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙宝碎片任选//行动药水//竞技夺宝活力丹//金钱</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>30//20//20//5000000</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力丹//活力丹//行动药水//竞技夺宝活力丹</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>10//10//10//10</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>3//3//3//3</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-14</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-14</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3195,7 +3394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3352,6 +3551,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3578,7 +3807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="28" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3775,6 +4004,18 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3882,6 +4123,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -4242,10 +4486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4253,38 +4497,39 @@
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="47"/>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="39" t="s">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="40" t="s">
@@ -4294,7 +4539,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4317,40 +4562,43 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="S3" s="49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -4373,38 +4621,41 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="50"/>
-    </row>
-    <row r="5" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="50"/>
+    </row>
+    <row r="5" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -4430,19 +4681,19 @@
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>37</v>
@@ -4451,14 +4702,17 @@
         <v>37</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="50"/>
-    </row>
-    <row r="6" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="50"/>
+    </row>
+    <row r="6" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -4471,33 +4725,34 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="50"/>
+      <c r="T6" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="V6" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="X6" s="38" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="31">
         <v>1</v>
@@ -4509,64 +4764,65 @@
         <v>48</v>
       </c>
       <c r="E7" s="66" t="str">
-        <f>TEXT(S7,"yyyy-mm-dd")&amp;" "&amp;T7</f>
-        <v>2023-04-14 00:00:00</v>
+        <f>TEXT(T7,"yyyy-mm-dd")&amp;" "&amp;U7</f>
+        <v>2023-05-14 00:00:00</v>
       </c>
       <c r="F7" s="66" t="str">
-        <f>TEXT(U7,"yyyy-mm-dd")&amp;" "&amp;V7</f>
-        <v>2023-04-21 00:00:00</v>
+        <f>TEXT(V7,"yyyy-mm-dd")&amp;" "&amp;W7</f>
+        <v>2023-05-21 00:00:00</v>
       </c>
       <c r="G7" s="66" t="str">
-        <f>TEXT(W7,"yyyy-mm-dd")&amp;" "&amp;X7</f>
-        <v>2023-04-22 00:00:00</v>
+        <f>TEXT(X7,"yyyy-mm-dd")&amp;" "&amp;Y7</f>
+        <v>2023-05-22 00:00:00</v>
       </c>
       <c r="H7" s="71"/>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="71"/>
+      <c r="J7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="31" t="b">
+      <c r="K7" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="O7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="P7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="S7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="63" t="s">
+      <c r="T7" s="114" t="s">
+        <v>514</v>
+      </c>
+      <c r="U7" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="T7" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="U7" s="65">
-        <f>S7+7</f>
-        <v>45037</v>
-      </c>
-      <c r="V7" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="W7" s="65">
-        <f>U7+1</f>
-        <v>45038</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V7" s="65">
+        <f>T7+7</f>
+        <v>45067</v>
+      </c>
+      <c r="W7" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="X7" s="65">
+        <f>V7+1</f>
+        <v>45068</v>
+      </c>
+      <c r="Y7" s="64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="31">
         <v>2</v>
@@ -4578,65 +4834,66 @@
         <v>55</v>
       </c>
       <c r="E8" s="66" t="str">
-        <f t="shared" ref="E8:E14" si="0">TEXT(S8,"yyyy-mm-dd")&amp;" "&amp;T8</f>
-        <v>2023-04-21 00:00:00</v>
+        <f t="shared" ref="E8:E14" si="0">TEXT(T8,"yyyy-mm-dd")&amp;" "&amp;U8</f>
+        <v>2023-05-21 00:00:00</v>
       </c>
       <c r="F8" s="66" t="str">
-        <f t="shared" ref="F8:F14" si="1">TEXT(U8,"yyyy-mm-dd")&amp;" "&amp;V8</f>
-        <v>2023-04-28 00:00:00</v>
+        <f t="shared" ref="F8:F14" si="1">TEXT(V8,"yyyy-mm-dd")&amp;" "&amp;W8</f>
+        <v>2023-05-28 00:00:00</v>
       </c>
       <c r="G8" s="66" t="str">
-        <f t="shared" ref="G8:G14" si="2">TEXT(W8,"yyyy-mm-dd")&amp;" "&amp;X8</f>
-        <v>2023-04-29 00:00:00</v>
+        <f t="shared" ref="G8:G14" si="2">TEXT(X8,"yyyy-mm-dd")&amp;" "&amp;Y8</f>
+        <v>2023-05-29 00:00:00</v>
       </c>
       <c r="H8" s="71"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="71"/>
+      <c r="J8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="31" t="b">
+      <c r="K8" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="31"/>
+      <c r="N8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="O8" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="P8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="S8" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="65">
-        <f>U7</f>
-        <v>45037</v>
-      </c>
-      <c r="T8" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="U8" s="65">
-        <f t="shared" ref="U8:U10" si="3">S8+7</f>
-        <v>45044</v>
-      </c>
-      <c r="V8" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="W8" s="65">
-        <f t="shared" ref="W8:W10" si="4">U8+1</f>
-        <v>45045</v>
-      </c>
-      <c r="X8" s="64" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="T8" s="65">
+        <f>V7</f>
+        <v>45067</v>
+      </c>
+      <c r="U8" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="V8" s="65">
+        <f t="shared" ref="V8:V10" si="3">T8+7</f>
+        <v>45074</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="X8" s="65">
+        <f t="shared" ref="X8:X10" si="4">V8+1</f>
+        <v>45075</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="31">
         <v>3</v>
@@ -4649,64 +4906,65 @@
       </c>
       <c r="E9" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>2023-04-28 00:00:00</v>
+        <v>2023-05-28 00:00:00</v>
       </c>
       <c r="F9" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>2023-05-05 00:00:00</v>
+        <v>2023-06-04 00:00:00</v>
       </c>
       <c r="G9" s="66" t="str">
         <f t="shared" si="2"/>
-        <v>2023-05-06 00:00:00</v>
+        <v>2023-06-05 00:00:00</v>
       </c>
       <c r="H9" s="71"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="31" t="b">
+      <c r="K9" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="31"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="31"/>
+      <c r="N9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="O9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="P9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="51" t="s">
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="S9" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="65">
-        <f t="shared" ref="S9:S12" si="5">U8</f>
-        <v>45044</v>
-      </c>
-      <c r="T9" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="U9" s="65">
+      <c r="T9" s="65">
+        <f t="shared" ref="T9:T12" si="5">V8</f>
+        <v>45074</v>
+      </c>
+      <c r="U9" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="V9" s="65">
         <f t="shared" si="3"/>
-        <v>45051</v>
-      </c>
-      <c r="V9" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="W9" s="65">
+        <v>45081</v>
+      </c>
+      <c r="W9" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="X9" s="65">
         <f t="shared" si="4"/>
-        <v>45052</v>
-      </c>
-      <c r="X9" s="64" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+        <v>45082</v>
+      </c>
+      <c r="Y9" s="64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="31">
         <v>4</v>
@@ -4719,64 +4977,65 @@
       </c>
       <c r="E10" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>2023-05-05 00:00:00</v>
+        <v>2023-06-04 00:00:00</v>
       </c>
       <c r="F10" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>2023-05-12 00:00:00</v>
+        <v>2023-06-11 00:00:00</v>
       </c>
       <c r="G10" s="66" t="str">
         <f t="shared" si="2"/>
-        <v>2023-05-13 00:00:00</v>
+        <v>2023-06-12 00:00:00</v>
       </c>
       <c r="H10" s="71"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="71"/>
+      <c r="J10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="31" t="b">
+      <c r="K10" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="31"/>
+      <c r="N10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="O10" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="P10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="R10" s="51" t="s">
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="S10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="65">
+      <c r="T10" s="65">
         <f t="shared" si="5"/>
-        <v>45051</v>
-      </c>
-      <c r="T10" s="64" t="s">
+        <v>45081</v>
+      </c>
+      <c r="U10" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="V10" s="65">
+        <f t="shared" si="3"/>
+        <v>45088</v>
+      </c>
+      <c r="W10" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="U10" s="65">
-        <f t="shared" si="3"/>
-        <v>45058</v>
-      </c>
-      <c r="V10" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="W10" s="65">
+      <c r="X10" s="65">
         <f t="shared" si="4"/>
-        <v>45059</v>
-      </c>
-      <c r="X10" s="64" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+        <v>45089</v>
+      </c>
+      <c r="Y10" s="64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="31">
         <v>5</v>
@@ -4789,62 +5048,63 @@
       </c>
       <c r="E11" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>2023-05-12 00:00:00</v>
+        <v>2023-06-11 00:00:00</v>
       </c>
       <c r="F11" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>2023-05-19 00:00:00</v>
+        <v>2023-06-18 00:00:00</v>
       </c>
       <c r="G11" s="66" t="str">
         <f t="shared" si="2"/>
-        <v>2023-05-20 00:00:00</v>
+        <v>2023-06-19 00:00:00</v>
       </c>
       <c r="H11" s="71"/>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="71"/>
+      <c r="J11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="31" t="b">
+      <c r="K11" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="31"/>
+      <c r="N11" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="O11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="P11" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R11" s="52"/>
-      <c r="S11" s="65">
+      <c r="S11" s="52"/>
+      <c r="T11" s="65">
         <f t="shared" si="5"/>
-        <v>45058</v>
-      </c>
-      <c r="T11" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="U11" s="65">
-        <f t="shared" ref="U11:U12" si="6">S11+7</f>
-        <v>45065</v>
-      </c>
-      <c r="V11" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="W11" s="65">
-        <f t="shared" ref="W11:W12" si="7">U11+1</f>
-        <v>45066</v>
-      </c>
-      <c r="X11" s="64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+        <v>45088</v>
+      </c>
+      <c r="U11" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="V11" s="65">
+        <f t="shared" ref="V11:V12" si="6">T11+7</f>
+        <v>45095</v>
+      </c>
+      <c r="W11" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="X11" s="65">
+        <f t="shared" ref="X11:X12" si="7">V11+1</f>
+        <v>45096</v>
+      </c>
+      <c r="Y11" s="64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="31">
         <v>6</v>
@@ -4857,62 +5117,63 @@
       </c>
       <c r="E12" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>2023-05-19 00:00:00</v>
+        <v>2023-06-18 00:00:00</v>
       </c>
       <c r="F12" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>2023-05-26 00:00:00</v>
+        <v>2023-06-25 00:00:00</v>
       </c>
       <c r="G12" s="66" t="str">
         <f t="shared" si="2"/>
-        <v>2023-05-27 00:00:00</v>
+        <v>2023-06-26 00:00:00</v>
       </c>
       <c r="H12" s="71"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="71"/>
+      <c r="J12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="31" t="b">
+      <c r="K12" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="O12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="P12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="65">
+      <c r="S12" s="52"/>
+      <c r="T12" s="65">
         <f t="shared" si="5"/>
-        <v>45065</v>
-      </c>
-      <c r="T12" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="U12" s="65">
+        <v>45095</v>
+      </c>
+      <c r="U12" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="V12" s="65">
         <f t="shared" si="6"/>
-        <v>45072</v>
-      </c>
-      <c r="V12" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="W12" s="65">
+        <v>45102</v>
+      </c>
+      <c r="W12" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="X12" s="65">
         <f t="shared" si="7"/>
-        <v>45073</v>
-      </c>
-      <c r="X12" s="64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+        <v>45103</v>
+      </c>
+      <c r="Y12" s="64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="31">
         <v>7</v>
@@ -4925,67 +5186,68 @@
       </c>
       <c r="E13" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>2023-04-14 00:00:00</v>
+        <v>2023-05-14 00:00:00</v>
       </c>
       <c r="F13" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>2023-04-21 00:00:00</v>
+        <v>2023-05-21 00:00:00</v>
       </c>
       <c r="G13" s="66" t="str">
         <f t="shared" si="2"/>
-        <v>2023-04-22 00:00:00</v>
+        <v>2023-05-22 00:00:00</v>
       </c>
       <c r="H13" s="71"/>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="71"/>
+      <c r="J13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="M13" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="N13" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="O13" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="P13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="Q13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="R13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="63" t="s">
+      <c r="S13" s="52"/>
+      <c r="T13" s="114" t="s">
+        <v>515</v>
+      </c>
+      <c r="U13" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="T13" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="U13" s="65">
-        <f>S13+7</f>
-        <v>45037</v>
-      </c>
-      <c r="V13" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="W13" s="65">
-        <f>U13+1</f>
-        <v>45038</v>
-      </c>
-      <c r="X13" s="64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V13" s="65">
+        <f>T13+7</f>
+        <v>45067</v>
+      </c>
+      <c r="W13" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="X13" s="65">
+        <f>V13+1</f>
+        <v>45068</v>
+      </c>
+      <c r="Y13" s="64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="31">
         <v>8</v>
@@ -4998,68 +5260,69 @@
       </c>
       <c r="E14" s="66" t="str">
         <f t="shared" si="0"/>
-        <v>2023-04-29 00:00:00</v>
+        <v>2023-05-28 00:00:00</v>
       </c>
       <c r="F14" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>2023-05-06 00:00:00</v>
+        <v>2023-06-04 00:00:00</v>
       </c>
       <c r="G14" s="66" t="str">
         <f t="shared" si="2"/>
-        <v>2023-05-07 00:00:00</v>
+        <v>2023-06-05 00:00:00</v>
       </c>
       <c r="H14" s="71"/>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="71"/>
+      <c r="J14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="M14" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="N14" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="O14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="P14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="Q14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="31" t="s">
+      <c r="R14" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R14" s="52"/>
-      <c r="S14" s="65">
-        <f>W13+7</f>
-        <v>45045</v>
-      </c>
-      <c r="T14" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="U14" s="65">
-        <f t="shared" ref="U14" si="8">S14+7</f>
-        <v>45052</v>
-      </c>
-      <c r="V14" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="W14" s="65">
-        <f t="shared" ref="W14" si="9">U14+1</f>
-        <v>45053</v>
-      </c>
-      <c r="X14" s="64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="S14" s="52"/>
+      <c r="T14" s="65">
+        <f>V13+7</f>
+        <v>45074</v>
+      </c>
+      <c r="U14" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="V14" s="65">
+        <f t="shared" ref="V14" si="8">T14+7</f>
+        <v>45081</v>
+      </c>
+      <c r="W14" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="X14" s="65">
+        <f t="shared" ref="X14" si="9">V14+1</f>
+        <v>45082</v>
+      </c>
+      <c r="Y14" s="64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>84</v>
       </c>
@@ -5076,32 +5339,33 @@
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
       <c r="H15" s="72"/>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="72"/>
+      <c r="J15" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="31" t="b">
+      <c r="K15" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="O15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="P15" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31" t="s">
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="51" t="s">
+      <c r="S15" s="51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>84</v>
       </c>
@@ -5118,30 +5382,31 @@
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
       <c r="H16" s="72"/>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="72"/>
+      <c r="J16" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="31" t="b">
+      <c r="K16" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="31"/>
+      <c r="N16" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="O16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="P16" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31" t="s">
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="51"/>
-    </row>
-    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>84</v>
       </c>
@@ -5158,32 +5423,33 @@
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
       <c r="H17" s="72"/>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="72"/>
+      <c r="J17" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="31" t="b">
+      <c r="K17" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="31"/>
+      <c r="N17" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="O17" s="31" t="s">
         <v>66</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>93</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>93</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" s="51"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="S17" s="51"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>84</v>
       </c>
@@ -5199,65 +5465,68 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="73" t="s">
-        <v>477</v>
-      </c>
-      <c r="I18" s="37" t="s">
+      <c r="H18" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="J18" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="31" t="b">
+      <c r="K18" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="N18" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="O18" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="P18" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="Q18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="64"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R18" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="S18" s="52"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="64"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
       <c r="C19" s="36"/>
       <c r="D19" s="31"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="31"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="37"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="64"/>
-    </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="J19" s="37"/>
+      <c r="K19" s="31"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="37"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="64"/>
+    </row>
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
       <c r="C20" s="36"/>
       <c r="D20" s="31"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="31"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="37"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="52"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="31"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="37"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
@@ -5270,8 +5539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5282,8 +5551,8 @@
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="53.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="70.5546875" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="26.44140625" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5343,7 +5612,7 @@
         <v>108</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5375,7 +5644,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5432,7 +5701,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>1</v>
@@ -5448,10 +5717,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>186</v>
+        <v>493</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>187</v>
+        <v>494</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>94</v>
@@ -5460,7 +5729,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>2</v>
@@ -5477,11 +5746,11 @@
       <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>189</v>
+      <c r="G8" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>490</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>94</v>
@@ -5490,7 +5759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>3</v>
@@ -5507,11 +5776,11 @@
       <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="G9" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>191</v>
+      <c r="G9" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>491</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>94</v>
@@ -5520,7 +5789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>4</v>
@@ -5537,11 +5806,11 @@
       <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="G10" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="67">
-        <v>30</v>
+      <c r="G10" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>94</v>
@@ -5550,7 +5819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>5</v>
@@ -5567,11 +5836,11 @@
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="67">
-        <v>80</v>
+      <c r="G11" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>94</v>
@@ -5580,7 +5849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>6</v>
@@ -5597,11 +5866,11 @@
       <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="G12" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>187</v>
+      <c r="G12" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>483</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>94</v>
@@ -5610,7 +5879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>7</v>
@@ -5627,11 +5896,11 @@
       <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>189</v>
+      <c r="G13" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>94</v>
@@ -5640,7 +5909,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>8</v>
@@ -5657,11 +5926,11 @@
       <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="G14" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>191</v>
+      <c r="G14" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>488</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>94</v>
@@ -5670,7 +5939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="6">
         <v>9</v>
@@ -5685,20 +5954,20 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>187</v>
+      <c r="G15" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>495</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="6">
         <v>10</v>
@@ -5713,19 +5982,19 @@
         <v>6</v>
       </c>
       <c r="F16" s="10">
-        <v>5</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>189</v>
+        <v>3</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>513</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5743,7 +6012,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>190</v>
@@ -5755,7 +6024,7 @@
         <v>94</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5773,19 +6042,19 @@
         <v>30</v>
       </c>
       <c r="F18" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="68">
-        <v>30</v>
+        <v>511</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>512</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5803,22 +6072,22 @@
         <v>68</v>
       </c>
       <c r="F19" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="68">
-        <v>80</v>
+        <v>194</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>189</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="6">
         <v>14</v>
@@ -5833,22 +6102,22 @@
         <v>128</v>
       </c>
       <c r="F20" s="10">
-        <v>5</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="68" t="s">
-        <v>187</v>
+        <v>3</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>483</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="6">
         <v>15</v>
@@ -5863,22 +6132,22 @@
         <v>198</v>
       </c>
       <c r="F21" s="10">
-        <v>5</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>189</v>
+        <v>3</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>505</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="6">
         <v>16</v>
@@ -5893,22 +6162,22 @@
         <v>328</v>
       </c>
       <c r="F22" s="10">
-        <v>5</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>191</v>
+        <v>3</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>510</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="6">
         <v>17</v>
@@ -5923,19 +6192,19 @@
         <v>648</v>
       </c>
       <c r="F23" s="10">
-        <v>5</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="68">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>497</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -5947,7 +6216,7 @@
         <v>344</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E24" s="5">
         <v>30</v>
@@ -5956,19 +6225,19 @@
         <v>1</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>187</v>
+        <v>499</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
         <v>19</v>
@@ -5977,7 +6246,7 @@
         <v>344</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E25" s="5">
         <v>68</v>
@@ -5985,17 +6254,17 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>189</v>
+      <c r="G25" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>500</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -6007,7 +6276,7 @@
         <v>344</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E26" s="5">
         <v>128</v>
@@ -6016,19 +6285,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>190</v>
+        <v>502</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>191</v>
+        <v>501</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
         <v>21</v>
@@ -6037,7 +6306,7 @@
         <v>344</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E27" s="5">
         <v>198</v>
@@ -6045,20 +6314,20 @@
       <c r="F27" s="5">
         <v>1</v>
       </c>
-      <c r="G27" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="69">
-        <v>30</v>
+      <c r="G27" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>504</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
         <v>22</v>
@@ -6067,7 +6336,7 @@
         <v>344</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E28" s="5">
         <v>328</v>
@@ -6075,20 +6344,20 @@
       <c r="F28" s="5">
         <v>1</v>
       </c>
-      <c r="G28" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="H28" s="69">
-        <v>80</v>
+      <c r="G28" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>507</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
         <v>23</v>
@@ -6097,7 +6366,7 @@
         <v>344</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E29" s="5">
         <v>648</v>
@@ -6105,17 +6374,17 @@
       <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="69" t="s">
-        <v>187</v>
+      <c r="G29" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>497</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6883,7 +7152,7 @@
     <row r="1" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="78" t="s">
         <v>136</v>
       </c>
       <c r="D1" s="1"/>
@@ -6900,7 +7169,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="75"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="11" t="s">
@@ -7902,14 +8171,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="82" t="s">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="83"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="80" t="s">
         <v>181</v>
       </c>
       <c r="G1" s="1"/>
@@ -7917,12 +8186,12 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="77"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -9298,38 +9567,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="87"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -9448,7 +9717,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="100" t="s">
         <v>226</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -9479,7 +9748,7 @@
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="97"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="21" t="s">
         <v>235</v>
       </c>
@@ -9508,7 +9777,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="97"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="21" t="s">
         <v>238</v>
       </c>
@@ -9538,7 +9807,7 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="97"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="21" t="s">
         <v>241</v>
       </c>
@@ -9568,7 +9837,7 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="21" t="s">
         <v>244</v>
       </c>
@@ -9879,30 +10148,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="96"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="87"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -10441,16 +10710,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="91"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="89"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="93"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -10554,28 +10823,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="82" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/sharedata/exceldata/excel/all/C-充值活动表.xlsx
+++ b/sharedata/exceldata/excel/all/C-充值活动表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444" tabRatio="846"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444" tabRatio="846" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="522">
   <si>
     <t>每日单冲，超值单冲，活动可同时存在</t>
   </si>
@@ -1729,57 +1729,6 @@
     <t>gift_des</t>
   </si>
   <si>
-    <t>每日礼包描述1</t>
-  </si>
-  <si>
-    <t>每日礼包描述2</t>
-  </si>
-  <si>
-    <t>每日礼包描述3</t>
-  </si>
-  <si>
-    <t>每日礼包描述4</t>
-  </si>
-  <si>
-    <t>每日礼包描述5</t>
-  </si>
-  <si>
-    <t>每日礼包描述6</t>
-  </si>
-  <si>
-    <t>每日礼包描述7</t>
-  </si>
-  <si>
-    <t>每日礼包描述8</t>
-  </si>
-  <si>
-    <t>每周礼包描述1</t>
-  </si>
-  <si>
-    <t>每周礼包描述2</t>
-  </si>
-  <si>
-    <t>每周礼包描述3</t>
-  </si>
-  <si>
-    <t>每周礼包描述4</t>
-  </si>
-  <si>
-    <t>每周礼包描述5</t>
-  </si>
-  <si>
-    <t>每周礼包描述6</t>
-  </si>
-  <si>
-    <t>每周礼包描述7</t>
-  </si>
-  <si>
-    <t>每周礼包描述8</t>
-  </si>
-  <si>
-    <t>每周礼包描述9</t>
-  </si>
-  <si>
     <r>
       <t>8000元累充LV20</t>
     </r>
@@ -2711,25 +2660,6 @@
   <si>
     <t>终身限购</t>
     <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身限购礼包描述1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身限购礼包描述2</t>
-  </si>
-  <si>
-    <t>终身限购礼包描述3</t>
-  </si>
-  <si>
-    <t>终身限购礼包描述4</t>
-  </si>
-  <si>
-    <t>终身限购礼包描述5</t>
-  </si>
-  <si>
-    <t>终身限购礼包描述6</t>
   </si>
   <si>
     <t>页签列表</t>
@@ -2784,10 +2714,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>8//8//8//8</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>传世画册//金丝锦囊//大师乐谱//绝世香脂</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -2839,21 +2765,10 @@
     <t>橙色选择包//养成资源包</t>
   </si>
   <si>
-    <t>20//4</t>
-  </si>
-  <si>
     <t>钻石//橙色选择包//行动药水</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>300//10</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>680//5//10</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>30//30//30//30</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
@@ -2866,12 +2781,8 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>1980//10//10//10</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>30</t>
+    <r>
+      <t>橙色装备任选/</t>
     </r>
     <r>
       <rPr>
@@ -2880,13 +2791,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>//10//10//10//10</t>
+      <t>/高级军事书//高级农业书//高级政治书//高级商业书</t>
     </r>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>橙色装备任选/</t>
+      <t>30</t>
     </r>
     <r>
       <rPr>
@@ -2895,9 +2806,161 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>/高级军事书//高级农业书//高级政治书//高级商业书</t>
+      <t>//10//10//10//10</t>
     </r>
     <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级军事书//高级农业书//高级政治书//高级商业书</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙宝碎片任选//行动药水//竞技夺宝活力丹//金钱</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力丹//活力丹//行动药水//竞技夺宝活力丹</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-14</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-14</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日免费礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人养成礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值成长礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人折扣礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华书籍大礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机资源礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机资源钜惠</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色宝物大礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周免费礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>12//12//12//12</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色装包限时购</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化助力礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺宝助力</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>450//10</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020//5//10</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身限购</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000//10//10//10</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石//橙色选择包//养成资源包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000//20//4</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍终极礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙宝助力礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色装备助力礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值钜惠大礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍大放送</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>2//2//2//2</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>3//2//2//2</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动大派送</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>10//10//10//10</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人养成大放送</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>25//25//25//25</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华书籍周钜惠</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15//15//15//15</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2912,39 +2975,23 @@
       </rPr>
       <t>//10//10//10//10</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级军事书//高级农业书//高级政治书//高级商业书</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙宝碎片任选//行动药水//竞技夺宝活力丹//金钱</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色宝物周礼包</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>30//20//20//5000000</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力丹//活力丹//行动药水//竞技夺宝活力丹</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>10//10//10//10</t>
+    <t>超值特惠周礼包</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>3//3//3//3</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-05-14</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-05-14</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <t>20//4</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3394,7 +3441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3566,21 +3613,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3807,7 +3839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="28" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3988,9 +4020,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="28" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="28" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4013,8 +4042,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4123,9 +4152,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -4488,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4510,7 +4536,7 @@
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="17" width="21.44140625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" customWidth="1"/>
     <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -4536,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4562,10 +4588,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>11</v>
@@ -4621,10 +4647,10 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -4743,13 +4769,13 @@
       </c>
       <c r="S6" s="50"/>
       <c r="T6" s="38" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="V6" s="38" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="X6" s="38" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -4775,8 +4801,8 @@
         <f>TEXT(X7,"yyyy-mm-dd")&amp;" "&amp;Y7</f>
         <v>2023-05-22 00:00:00</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="31" t="s">
         <v>49</v>
       </c>
@@ -4801,25 +4827,25 @@
       <c r="S7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="114" t="s">
-        <v>514</v>
+      <c r="T7" s="76" t="s">
+        <v>482</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="V7" s="65">
         <f>T7+7</f>
         <v>45067</v>
       </c>
       <c r="W7" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="X7" s="65">
         <f>V7+1</f>
         <v>45068</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -4845,8 +4871,8 @@
         <f t="shared" ref="G8:G14" si="2">TEXT(X8,"yyyy-mm-dd")&amp;" "&amp;Y8</f>
         <v>2023-05-29 00:00:00</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="31" t="s">
         <v>49</v>
       </c>
@@ -4876,21 +4902,21 @@
         <v>45067</v>
       </c>
       <c r="U8" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="V8" s="65">
         <f t="shared" ref="V8:V10" si="3">T8+7</f>
         <v>45074</v>
       </c>
       <c r="W8" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="X8" s="65">
         <f t="shared" ref="X8:X10" si="4">V8+1</f>
         <v>45075</v>
       </c>
       <c r="Y8" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -4916,8 +4942,8 @@
         <f t="shared" si="2"/>
         <v>2023-06-05 00:00:00</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="31" t="s">
         <v>49</v>
       </c>
@@ -4937,7 +4963,7 @@
       </c>
       <c r="Q9" s="31"/>
       <c r="R9" s="31" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="S9" s="51" t="s">
         <v>62</v>
@@ -4947,21 +4973,21 @@
         <v>45074</v>
       </c>
       <c r="U9" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="V9" s="65">
         <f t="shared" si="3"/>
         <v>45081</v>
       </c>
       <c r="W9" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="X9" s="65">
         <f t="shared" si="4"/>
         <v>45082</v>
       </c>
       <c r="Y9" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -4987,8 +5013,8 @@
         <f t="shared" si="2"/>
         <v>2023-06-12 00:00:00</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="31" t="s">
         <v>49</v>
       </c>
@@ -5008,7 +5034,7 @@
       </c>
       <c r="Q10" s="31"/>
       <c r="R10" s="31" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="S10" s="51" t="s">
         <v>67</v>
@@ -5018,21 +5044,21 @@
         <v>45081</v>
       </c>
       <c r="U10" s="64" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="V10" s="65">
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
       <c r="W10" s="64" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="X10" s="65">
         <f t="shared" si="4"/>
         <v>45089</v>
       </c>
       <c r="Y10" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -5058,8 +5084,8 @@
         <f t="shared" si="2"/>
         <v>2023-06-19 00:00:00</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="31" t="s">
         <v>49</v>
       </c>
@@ -5087,21 +5113,21 @@
         <v>45088</v>
       </c>
       <c r="U11" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="V11" s="65">
         <f t="shared" ref="V11:V12" si="6">T11+7</f>
         <v>45095</v>
       </c>
       <c r="W11" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="X11" s="65">
         <f t="shared" ref="X11:X12" si="7">V11+1</f>
         <v>45096</v>
       </c>
       <c r="Y11" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -5127,8 +5153,8 @@
         <f t="shared" si="2"/>
         <v>2023-06-26 00:00:00</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="31" t="s">
         <v>49</v>
       </c>
@@ -5156,21 +5182,21 @@
         <v>45095</v>
       </c>
       <c r="U12" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="V12" s="65">
         <f t="shared" si="6"/>
         <v>45102</v>
       </c>
       <c r="W12" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="X12" s="65">
         <f t="shared" si="7"/>
         <v>45103</v>
       </c>
       <c r="Y12" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -5196,8 +5222,8 @@
         <f t="shared" si="2"/>
         <v>2023-05-22 00:00:00</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="31" t="s">
         <v>76</v>
       </c>
@@ -5226,25 +5252,25 @@
         <v>52</v>
       </c>
       <c r="S13" s="52"/>
-      <c r="T13" s="114" t="s">
-        <v>515</v>
+      <c r="T13" s="76" t="s">
+        <v>483</v>
       </c>
       <c r="U13" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="V13" s="65">
         <f>T13+7</f>
         <v>45067</v>
       </c>
       <c r="W13" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="X13" s="65">
         <f>V13+1</f>
         <v>45068</v>
       </c>
       <c r="Y13" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
@@ -5270,8 +5296,8 @@
         <f t="shared" si="2"/>
         <v>2023-06-05 00:00:00</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="31" t="s">
         <v>76</v>
       </c>
@@ -5305,21 +5331,21 @@
         <v>45074</v>
       </c>
       <c r="U14" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="V14" s="65">
         <f t="shared" ref="V14" si="8">T14+7</f>
         <v>45081</v>
       </c>
       <c r="W14" s="64" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="X14" s="65">
         <f t="shared" ref="X14" si="9">V14+1</f>
         <v>45082</v>
       </c>
       <c r="Y14" s="64" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
@@ -5338,8 +5364,8 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="37" t="s">
         <v>87</v>
       </c>
@@ -5381,8 +5407,8 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="31" t="s">
         <v>49</v>
       </c>
@@ -5422,8 +5448,8 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
       <c r="J17" s="37" t="s">
         <v>93</v>
       </c>
@@ -5445,7 +5471,7 @@
         <v>93</v>
       </c>
       <c r="R17" s="31" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="S17" s="51"/>
     </row>
@@ -5465,11 +5491,11 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="74" t="s">
-        <v>481</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>480</v>
+      <c r="H18" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>457</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>94</v>
@@ -5487,7 +5513,7 @@
         <v>94</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="S18" s="52"/>
       <c r="T18" s="63"/>
@@ -5539,15 +5565,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
@@ -5566,10 +5592,10 @@
         <v>368</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="70"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -5578,10 +5604,10 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="70"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -5612,7 +5638,7 @@
         <v>108</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5644,7 +5670,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5710,17 +5736,17 @@
         <v>290</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>372</v>
+        <v>484</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>94</v>
@@ -5738,7 +5764,7 @@
         <v>290</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>373</v>
+        <v>487</v>
       </c>
       <c r="E8" s="6">
         <v>6</v>
@@ -5746,11 +5772,11 @@
       <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="75" t="s">
-        <v>489</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>490</v>
+      <c r="G8" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>466</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>94</v>
@@ -5768,7 +5794,7 @@
         <v>290</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>374</v>
+        <v>486</v>
       </c>
       <c r="E9" s="6">
         <v>18</v>
@@ -5777,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>94</v>
@@ -5798,7 +5824,7 @@
         <v>290</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="E10" s="6">
         <v>30</v>
@@ -5807,10 +5833,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>94</v>
@@ -5828,7 +5854,7 @@
         <v>290</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>376</v>
+        <v>495</v>
       </c>
       <c r="E11" s="6">
         <v>68</v>
@@ -5858,7 +5884,7 @@
         <v>290</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>377</v>
+        <v>488</v>
       </c>
       <c r="E12" s="6">
         <v>128</v>
@@ -5867,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>94</v>
@@ -5888,7 +5914,7 @@
         <v>290</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>378</v>
+        <v>490</v>
       </c>
       <c r="E13" s="6">
         <v>198</v>
@@ -5900,7 +5926,7 @@
         <v>190</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>94</v>
@@ -5918,7 +5944,7 @@
         <v>290</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>379</v>
+        <v>491</v>
       </c>
       <c r="E14" s="6">
         <v>328</v>
@@ -5927,10 +5953,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>94</v>
@@ -5948,7 +5974,7 @@
         <v>300</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>380</v>
+        <v>492</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10">
@@ -5958,13 +5984,13 @@
         <v>193</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -5976,7 +6002,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
       <c r="E16" s="10">
         <v>6</v>
@@ -5985,19 +6011,19 @@
         <v>3</v>
       </c>
       <c r="G16" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>508</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>513</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="6">
         <v>11</v>
@@ -6006,7 +6032,7 @@
         <v>300</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>382</v>
+        <v>489</v>
       </c>
       <c r="E17" s="10">
         <v>18</v>
@@ -6014,20 +6040,20 @@
       <c r="F17" s="10">
         <v>3</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="68" t="s">
-        <v>191</v>
+      <c r="H17" s="28" t="s">
+        <v>510</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="6">
         <v>12</v>
@@ -6036,7 +6062,7 @@
         <v>300</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>383</v>
+        <v>511</v>
       </c>
       <c r="E18" s="10">
         <v>30</v>
@@ -6044,20 +6070,20 @@
       <c r="F18" s="10">
         <v>3</v>
       </c>
-      <c r="G18" s="68" t="s">
-        <v>511</v>
-      </c>
-      <c r="H18" s="68" t="s">
+      <c r="G18" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>512</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="6">
         <v>13</v>
@@ -6066,7 +6092,7 @@
         <v>300</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>384</v>
+        <v>513</v>
       </c>
       <c r="E19" s="10">
         <v>68</v>
@@ -6074,17 +6100,17 @@
       <c r="F19" s="10">
         <v>3</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="68" t="s">
-        <v>189</v>
+      <c r="H19" s="28" t="s">
+        <v>514</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -6096,7 +6122,7 @@
         <v>300</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>385</v>
+        <v>515</v>
       </c>
       <c r="E20" s="10">
         <v>128</v>
@@ -6105,16 +6131,16 @@
         <v>3</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -6126,7 +6152,7 @@
         <v>300</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>386</v>
+        <v>494</v>
       </c>
       <c r="E21" s="10">
         <v>198</v>
@@ -6135,19 +6161,19 @@
         <v>3</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="6">
         <v>16</v>
@@ -6156,7 +6182,7 @@
         <v>300</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>387</v>
+        <v>518</v>
       </c>
       <c r="E22" s="10">
         <v>328</v>
@@ -6164,17 +6190,17 @@
       <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="G22" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>510</v>
+      <c r="G22" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>519</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -6186,7 +6212,7 @@
         <v>300</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>388</v>
+        <v>520</v>
       </c>
       <c r="E23" s="10">
         <v>648</v>
@@ -6194,17 +6220,17 @@
       <c r="F23" s="10">
         <v>3</v>
       </c>
-      <c r="G23" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="H23" s="76" t="s">
-        <v>497</v>
+      <c r="G23" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>521</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -6216,7 +6242,7 @@
         <v>344</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="E24" s="5">
         <v>30</v>
@@ -6224,17 +6250,17 @@
       <c r="F24" s="5">
         <v>1</v>
       </c>
-      <c r="G24" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>499</v>
+      <c r="G24" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>497</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -6246,7 +6272,7 @@
         <v>344</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="E25" s="5">
         <v>68</v>
@@ -6254,17 +6280,17 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="76" t="s">
+      <c r="G25" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="H25" s="75" t="s">
         <v>498</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>500</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -6276,7 +6302,7 @@
         <v>344</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="E26" s="5">
         <v>128</v>
@@ -6284,17 +6310,17 @@
       <c r="F26" s="5">
         <v>1</v>
       </c>
-      <c r="G26" s="69" t="s">
-        <v>502</v>
-      </c>
-      <c r="H26" s="69" t="s">
-        <v>501</v>
+      <c r="G26" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="H26" s="68" t="s">
+        <v>474</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -6306,7 +6332,7 @@
         <v>344</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="E27" s="5">
         <v>198</v>
@@ -6315,16 +6341,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -6336,7 +6362,7 @@
         <v>344</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="E28" s="5">
         <v>328</v>
@@ -6345,16 +6371,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
@@ -6366,7 +6392,7 @@
         <v>344</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="E29" s="5">
         <v>648</v>
@@ -6374,17 +6400,17 @@
       <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="H29" s="76" t="s">
-        <v>497</v>
+      <c r="G29" s="75" t="s">
+        <v>501</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>502</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6700,7 +6726,7 @@
         <v>122</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -6727,13 +6753,13 @@
         <v>125</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H8" s="15">
         <v>1</v>
@@ -6754,13 +6780,13 @@
         <v>127</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="H9" s="15">
         <v>1</v>
@@ -6781,13 +6807,13 @@
         <v>129</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
@@ -6808,13 +6834,13 @@
         <v>131</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="H11" s="15">
         <v>1</v>
@@ -6835,13 +6861,13 @@
         <v>134</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="H12" s="15">
         <v>1</v>
@@ -6859,10 +6885,10 @@
         <v>121</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F13" s="15">
         <v>1</v>
@@ -6886,10 +6912,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -6916,7 +6942,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
@@ -6943,13 +6969,13 @@
         <v>125</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H16" s="17">
         <v>1</v>
@@ -6970,13 +6996,13 @@
         <v>127</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="F17" s="17">
         <v>1</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="H17" s="17">
         <v>1</v>
@@ -6997,13 +7023,13 @@
         <v>129</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F18" s="17">
         <v>1</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="H18" s="17">
         <v>1</v>
@@ -7024,13 +7050,13 @@
         <v>131</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F19" s="17">
         <v>1</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="H19" s="17">
         <v>1</v>
@@ -7051,13 +7077,13 @@
         <v>134</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="H20" s="17">
         <v>1</v>
@@ -7075,10 +7101,10 @@
         <v>121</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F21" s="17">
         <v>1</v>
@@ -7102,10 +7128,10 @@
         <v>121</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F22" s="17">
         <v>1</v>
@@ -7152,7 +7178,7 @@
     <row r="1" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>136</v>
       </c>
       <c r="D1" s="1"/>
@@ -7169,7 +7195,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="79"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="11" t="s">
@@ -8171,14 +8197,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="86" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="87"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="79" t="s">
         <v>181</v>
       </c>
       <c r="G1" s="1"/>
@@ -8186,12 +8212,12 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="81"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -8318,7 +8344,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -8330,7 +8356,7 @@
         <v>47</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8345,7 +8371,7 @@
         <v>189</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -8357,7 +8383,7 @@
         <v>47</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8372,7 +8398,7 @@
         <v>191</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -8384,7 +8410,7 @@
         <v>47</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8399,7 +8425,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -8411,7 +8437,7 @@
         <v>47</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8426,7 +8452,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -8438,7 +8464,7 @@
         <v>47</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8449,7 +8475,7 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -8461,7 +8487,7 @@
         <v>47</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8472,7 +8498,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F13" s="15">
         <v>1</v>
@@ -8484,7 +8510,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8495,7 +8521,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -8507,7 +8533,7 @@
         <v>47</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8522,7 +8548,7 @@
         <v>187</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -8534,7 +8560,7 @@
         <v>54</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8549,7 +8575,7 @@
         <v>189</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -8561,7 +8587,7 @@
         <v>54</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8576,7 +8602,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
@@ -8588,7 +8614,7 @@
         <v>54</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8603,7 +8629,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F18" s="15">
         <v>1</v>
@@ -8615,7 +8641,7 @@
         <v>54</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8630,7 +8656,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -8642,7 +8668,7 @@
         <v>54</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8653,7 +8679,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -8665,7 +8691,7 @@
         <v>54</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8676,7 +8702,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
@@ -8688,7 +8714,7 @@
         <v>54</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8699,7 +8725,7 @@
       <c r="C22" s="17"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
@@ -8711,7 +8737,7 @@
         <v>54</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8726,7 +8752,7 @@
         <v>187</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -8738,7 +8764,7 @@
         <v>56</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8753,7 +8779,7 @@
         <v>189</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F24" s="15">
         <v>1</v>
@@ -8765,7 +8791,7 @@
         <v>56</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8780,7 +8806,7 @@
         <v>191</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F25" s="15">
         <v>1</v>
@@ -8792,7 +8818,7 @@
         <v>56</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8807,7 +8833,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F26" s="15">
         <v>1</v>
@@ -8819,7 +8845,7 @@
         <v>56</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8834,7 +8860,7 @@
         <v>80</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F27" s="15">
         <v>1</v>
@@ -8846,7 +8872,7 @@
         <v>56</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8857,7 +8883,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F28" s="15">
         <v>1</v>
@@ -8869,7 +8895,7 @@
         <v>56</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8880,7 +8906,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F29" s="15">
         <v>1</v>
@@ -8903,7 +8929,7 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F30" s="15">
         <v>1</v>
@@ -8930,7 +8956,7 @@
         <v>187</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F31" s="15">
         <v>1</v>
@@ -8942,7 +8968,7 @@
         <v>63</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8957,7 +8983,7 @@
         <v>189</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F32" s="15">
         <v>1</v>
@@ -8969,7 +8995,7 @@
         <v>63</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8984,7 +9010,7 @@
         <v>191</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F33" s="15">
         <v>1</v>
@@ -8996,7 +9022,7 @@
         <v>63</v>
       </c>
       <c r="I33" s="55" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9011,7 +9037,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F34" s="15">
         <v>1</v>
@@ -9023,7 +9049,7 @@
         <v>63</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9038,7 +9064,7 @@
         <v>80</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F35" s="15">
         <v>1</v>
@@ -9050,7 +9076,7 @@
         <v>63</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9061,7 +9087,7 @@
       <c r="C36" s="17"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F36" s="15">
         <v>1</v>
@@ -9073,7 +9099,7 @@
         <v>63</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9084,7 +9110,7 @@
       <c r="C37" s="17"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F37" s="15">
         <v>1</v>
@@ -9107,7 +9133,7 @@
       <c r="C38" s="17"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F38" s="15">
         <v>1</v>
@@ -9134,7 +9160,7 @@
         <v>187</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F39" s="15">
         <v>1</v>
@@ -9146,7 +9172,7 @@
         <v>68</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9161,7 +9187,7 @@
         <v>189</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F40" s="15">
         <v>1</v>
@@ -9173,7 +9199,7 @@
         <v>68</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9188,7 +9214,7 @@
         <v>191</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F41" s="15">
         <v>1</v>
@@ -9200,7 +9226,7 @@
         <v>68</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9215,7 +9241,7 @@
         <v>30</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F42" s="15">
         <v>1</v>
@@ -9227,7 +9253,7 @@
         <v>68</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9242,7 +9268,7 @@
         <v>80</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F43" s="15">
         <v>1</v>
@@ -9254,7 +9280,7 @@
         <v>68</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9265,7 +9291,7 @@
       <c r="C44" s="17"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F44" s="15">
         <v>1</v>
@@ -9277,7 +9303,7 @@
         <v>68</v>
       </c>
       <c r="I44" s="55" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9288,7 +9314,7 @@
       <c r="C45" s="17"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F45" s="15">
         <v>1</v>
@@ -9300,7 +9326,7 @@
         <v>68</v>
       </c>
       <c r="I45" s="55" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9311,7 +9337,7 @@
       <c r="C46" s="17"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F46" s="15">
         <v>1</v>
@@ -9323,7 +9349,7 @@
         <v>68</v>
       </c>
       <c r="I46" s="55" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9338,7 +9364,7 @@
         <v>187</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F47" s="15">
         <v>1</v>
@@ -9350,7 +9376,7 @@
         <v>72</v>
       </c>
       <c r="I47" s="55" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9365,7 +9391,7 @@
         <v>189</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F48" s="15">
         <v>1</v>
@@ -9377,7 +9403,7 @@
         <v>72</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9392,7 +9418,7 @@
         <v>191</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F49" s="15">
         <v>1</v>
@@ -9404,7 +9430,7 @@
         <v>72</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9419,7 +9445,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F50" s="15">
         <v>1</v>
@@ -9431,7 +9457,7 @@
         <v>72</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9446,7 +9472,7 @@
         <v>80</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F51" s="15">
         <v>1</v>
@@ -9458,7 +9484,7 @@
         <v>72</v>
       </c>
       <c r="I51" s="55" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9469,7 +9495,7 @@
       <c r="C52" s="58"/>
       <c r="D52" s="56"/>
       <c r="E52" s="15" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F52" s="15">
         <v>1</v>
@@ -9481,7 +9507,7 @@
         <v>72</v>
       </c>
       <c r="I52" s="55" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9492,7 +9518,7 @@
       <c r="C53" s="58"/>
       <c r="D53" s="56"/>
       <c r="E53" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
@@ -9504,7 +9530,7 @@
         <v>72</v>
       </c>
       <c r="I53" s="55" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9515,7 +9541,7 @@
       <c r="C54" s="58"/>
       <c r="D54" s="56"/>
       <c r="E54" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
@@ -9527,7 +9553,7 @@
         <v>72</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -9567,38 +9593,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="103" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="91"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -9717,7 +9743,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>226</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -9748,7 +9774,7 @@
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="101"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="21" t="s">
         <v>235</v>
       </c>
@@ -9777,7 +9803,7 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="101"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="21" t="s">
         <v>238</v>
       </c>
@@ -9807,7 +9833,7 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="101"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="21" t="s">
         <v>241</v>
       </c>
@@ -9837,7 +9863,7 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="102"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="21" t="s">
         <v>244</v>
       </c>
@@ -10105,7 +10131,7 @@
         <v>233</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="K20" s="22"/>
     </row>
@@ -10148,30 +10174,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="91"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -10710,16 +10736,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="93"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="92"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -10823,28 +10849,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="86" t="s">
+      <c r="E1" s="108"/>
+      <c r="F1" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="87"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -10938,10 +10964,10 @@
         <v>362</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11052,7 +11078,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="H10" s="62">
         <f>I9+1</f>
